--- a/kma_mm/kma_be/src/exports/excel/ket_qua_ky_hoc_1.xlsx
+++ b/kma_mm/kma_be/src/exports/excel/ket_qua_ky_hoc_1.xlsx
@@ -25,7 +25,7 @@
     <t>Độc lập - Tự do - Hạnh phúc</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 29 tháng 6 năm 2025</t>
+    <t>Hà Nội, ngày 1 tháng 7 năm 2025</t>
   </si>
   <si>
     <t>KẾT QUẢ HỌC TẬP</t>
@@ -610,7 +610,7 @@
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M33"/>
-  <sheetFormatPr defaultRowHeight="22" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="23" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
@@ -661,7 +661,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="3" ht="23" customHeight="1" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
@@ -674,7 +674,7 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -691,7 +691,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" ht="20" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -709,7 +709,7 @@
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -727,7 +727,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -745,7 +745,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -781,7 +781,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -798,7 +798,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" ht="20" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
@@ -858,7 +858,7 @@
       </c>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" ht="20" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>1</v>
       </c>
@@ -897,7 +897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" ht="20" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -936,7 +936,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="20" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>3</v>
       </c>
@@ -989,12 +989,12 @@
       <c r="L18"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" ht="23" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" ht="20" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" ht="20" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>21</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" ht="20" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" ht="20" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>21</v>
       </c>
@@ -1171,12 +1171,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" ht="5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>35</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>37</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="L27"/>
       <c r="M27"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" ht="20" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" ht="20" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>

--- a/kma_mm/kma_be/src/exports/excel/ket_qua_ky_hoc_1.xlsx
+++ b/kma_mm/kma_be/src/exports/excel/ket_qua_ky_hoc_1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="35">
   <si>
     <t>BAN CƠ YẾU CHÍNH PHỦ</t>
   </si>
@@ -25,31 +25,31 @@
     <t>Độc lập - Tự do - Hạnh phúc</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 1 tháng 7 năm 2025</t>
+    <t>Hà Nội, ngày 31 tháng 7 năm 2025</t>
   </si>
   <si>
     <t>KẾT QUẢ HỌC TẬP</t>
   </si>
   <si>
-    <t>Học kỳ 1 Năm học 2021-2025</t>
-  </si>
-  <si>
-    <t>Họ và tên: Tưởng Cao Bằng</t>
-  </si>
-  <si>
-    <t>Ngày sinh: 28/6/1999</t>
+    <t>Học kỳ 1 Năm học 2020-2028</t>
+  </si>
+  <si>
+    <t>Họ và tên: Nguyễn Huy Hoàng</t>
+  </si>
+  <si>
+    <t>Ngày sinh: 21/2/2003</t>
   </si>
   <si>
     <t>Nơi sinh: Hà Nội</t>
   </si>
   <si>
-    <t>Mã học viên: HH310102</t>
-  </si>
-  <si>
-    <t>Khóa đào tạo: HH31</t>
-  </si>
-  <si>
-    <t>Ngành/chuyên ngành: ĐHCQ KTMM Khóa 31</t>
+    <t>Mã học viên: ATL200101</t>
+  </si>
+  <si>
+    <t>Khóa đào tạo: ATL20</t>
+  </si>
+  <si>
+    <t>Ngành/chuyên ngành: ATL20</t>
   </si>
   <si>
     <t>Trình độ đào tạo: Đại học</t>
@@ -85,46 +85,31 @@
     <t>Hệ 4</t>
   </si>
   <si>
-    <t>Tin học đại cương</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Triết học Mác - Lê nin</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Toán cao cấp 1</t>
+    <t>Lập trình driver</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>Kinh tế chính trị Mác - Lênin</t>
-  </si>
-  <si>
-    <t>Toán cao cấp 3</t>
+    <t>Pháp luật đại cương</t>
   </si>
   <si>
     <t>B+</t>
   </si>
   <si>
-    <t>Công nghệ mạng máy tính</t>
+    <t>Thiết kế hệ thống nhúng</t>
   </si>
   <si>
     <t>II. Các học phần được miễn học, công nhận tín chỉ hoặc chuyển đổi điểm</t>
   </si>
   <si>
-    <t>Điểm TB học kỳ (hệ 4): 2.96</t>
-  </si>
-  <si>
-    <t>Xếp loại học lực: Khá</t>
-  </si>
-  <si>
-    <t>Điểm TB học kỳ (hệ 10): 7.5</t>
+    <t>Điểm TB học kỳ (hệ 4): 3.2</t>
+  </si>
+  <si>
+    <t>Xếp loại học lực: Giỏi</t>
+  </si>
+  <si>
+    <t>Điểm TB học kỳ (hệ 10): 7.4</t>
   </si>
   <si>
     <t>KT. GIÁM ĐỐC</t>
@@ -609,7 +594,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M32"/>
   <sheetFormatPr defaultRowHeight="23" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
@@ -866,32 +851,32 @@
         <v>24</v>
       </c>
       <c r="C15" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="10">
-        <v>6.08</v>
+        <v>7</v>
       </c>
       <c r="E15" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" s="10">
-        <v>3.07</v>
+        <v>8</v>
       </c>
       <c r="L15" s="10">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>27</v>
@@ -905,154 +890,152 @@
         <v>28</v>
       </c>
       <c r="C16" s="10">
-        <v>4</v>
-      </c>
-      <c r="D16" s="10">
-        <v>7.71</v>
-      </c>
-      <c r="E16" s="10">
         <v>3</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="D16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" ht="23" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10">
-        <v>5</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="10">
-        <v>2</v>
-      </c>
-      <c r="K16" s="10">
-        <v>7.3</v>
-      </c>
-      <c r="L16" s="10">
-        <v>3</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>3</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="10">
-        <v>3</v>
-      </c>
-      <c r="D17" s="10">
-        <v>8.04</v>
-      </c>
-      <c r="E17" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10">
-        <v>6</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="10">
-        <v>2</v>
-      </c>
-      <c r="K17" s="10">
-        <v>7.89</v>
-      </c>
-      <c r="L17" s="10">
-        <v>3</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-    </row>
-    <row r="19" ht="23" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="D19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
       <c r="K20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="L20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="8"/>
+      <c r="H21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -1132,53 +1115,35 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" ht="5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
+    <row r="24" ht="5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
     </row>
     <row r="26" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1188,37 +1153,49 @@
       <c r="G26" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
     </row>
     <row r="27" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
       <c r="G27" t="s">
         <v>21</v>
       </c>
-      <c r="H27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-    </row>
-    <row r="28" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H27" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1240,13 +1217,13 @@
       <c r="G28" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
+      <c r="H28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
       <c r="M28" t="s">
         <v>21</v>
       </c>
@@ -1274,7 +1251,7 @@
         <v>21</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
@@ -1284,7 +1261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" ht="20" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1306,13 +1283,21 @@
       <c r="G30" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
       <c r="M30" t="s">
         <v>21</v>
       </c>
@@ -1396,47 +1381,6 @@
         <v>21</v>
       </c>
       <c r="M32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" ht="23" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1464,30 +1408,30 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="G13:G16"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="M13:M14"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="H25:M25"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="H26:M26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H27:L27"/>
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H30:L30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="0"/>

--- a/kma_mm/kma_be/src/exports/excel/ket_qua_ky_hoc_1.xlsx
+++ b/kma_mm/kma_be/src/exports/excel/ket_qua_ky_hoc_1.xlsx
@@ -6,6 +6,9 @@
   <sheets>
     <sheet sheetId="1" name="Kết quả kỳ học" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Kết quả kỳ học'!$13:$14</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -25,7 +28,7 @@
     <t>Độc lập - Tự do - Hạnh phúc</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 1 tháng 7 năm 2025</t>
+    <t>Hà Nội, ngày 20 tháng 8 năm 2025</t>
   </si>
   <si>
     <t>KẾT QUẢ HỌC TẬP</t>
@@ -1489,7 +1492,8 @@
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="H30:L30"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.4" right="0.4" top="0.2" bottom="0.2" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="0"/>
 </worksheet>
 </file>